--- a/Excel/excel/TodayGiftConfig.xlsx
+++ b/Excel/excel/TodayGiftConfig.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="TodayGiftConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -343,12 +341,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1172,7 +1170,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1325,36 +1323,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>